--- a/subjects/resources/2/andan/LR1.xlsx
+++ b/subjects/resources/2/andan/LR1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\2 курс\AD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="2" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
